--- a/REGULAR/OJT/PENAFLORIDA, LORYN B..xlsx
+++ b/REGULAR/OJT/PENAFLORIDA, LORYN B..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>8/10,11/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3/2023</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1139,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1182,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1246,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1306,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1372,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1435,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1533,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1592,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1657,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1700,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1775,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1961,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2027,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2085,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2151,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2207,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2282,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2325,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2391,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2447,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2545,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2608,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3057,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3220,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3224,7 +3230,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73</v>
+        <v>75.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5382,13 +5388,15 @@
       <c r="B112" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -5402,13 +5410,15 @@
         <v>45170</v>
       </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -5419,9 +5429,13 @@
       <c r="A114" s="40">
         <v>45200</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
+      <c r="D114" s="39">
+        <v>2</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
@@ -5431,7 +5445,9 @@
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
